--- a/Jogos_do_Dia/2024-03-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -712,22 +712,22 @@
         <v>54</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="H2">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L2">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="M2">
         <v>1.4</v>
@@ -736,37 +736,37 @@
         <v>2.75</v>
       </c>
       <c r="O2">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="P2">
-        <v>8.5</v>
+        <v>2.94</v>
       </c>
       <c r="Q2">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="R2">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="S2">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="T2">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U2">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="V2">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="W2">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="X2">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="Y2">
-        <v>2.55</v>
+        <v>2.88</v>
       </c>
       <c r="Z2">
         <v>2.33</v>
@@ -784,43 +784,43 @@
         <v>3.5</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -852,13 +852,13 @@
         <v>3.75</v>
       </c>
       <c r="J3">
-        <v>2.17</v>
+        <v>2.35</v>
       </c>
       <c r="K3">
-        <v>3.34</v>
+        <v>3.3</v>
       </c>
       <c r="L3">
-        <v>3.42</v>
+        <v>3</v>
       </c>
       <c r="M3">
         <v>1.5</v>
@@ -879,10 +879,10 @@
         <v>2.75</v>
       </c>
       <c r="S3">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="T3">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U3">
         <v>1.91</v>
@@ -983,13 +983,13 @@
         <v>3.6</v>
       </c>
       <c r="J4">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="K4">
-        <v>3.72</v>
+        <v>3.5</v>
       </c>
       <c r="L4">
-        <v>3.72</v>
+        <v>3.1</v>
       </c>
       <c r="M4">
         <v>1.36</v>
@@ -1010,10 +1010,10 @@
         <v>4</v>
       </c>
       <c r="S4">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="T4">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="U4">
         <v>1.66</v>
@@ -1117,10 +1117,10 @@
         <v>1.38</v>
       </c>
       <c r="K5">
-        <v>4.98</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="M5">
         <v>1.3</v>
@@ -1141,10 +1141,10 @@
         <v>4.5</v>
       </c>
       <c r="S5">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="T5">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="U5">
         <v>1.85</v>
@@ -1245,13 +1245,13 @@
         <v>3.75</v>
       </c>
       <c r="J6">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="K6">
-        <v>3.54</v>
+        <v>3.5</v>
       </c>
       <c r="L6">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
         <v>1.4</v>
@@ -1272,7 +1272,7 @@
         <v>3.5</v>
       </c>
       <c r="S6">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="T6">
         <v>1.94</v>
@@ -1376,13 +1376,13 @@
         <v>3.25</v>
       </c>
       <c r="J7">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="K7">
-        <v>3.13</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="M7">
         <v>1.53</v>
@@ -1403,7 +1403,7 @@
         <v>2.62</v>
       </c>
       <c r="S7">
-        <v>2.46</v>
+        <v>2.43</v>
       </c>
       <c r="T7">
         <v>1.55</v>

--- a/Jogos_do_Dia/2024-03-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -712,13 +712,13 @@
         <v>54</v>
       </c>
       <c r="G2">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H2">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J2">
         <v>1.4</v>

--- a/Jogos_do_Dia/2024-03-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -712,22 +712,22 @@
         <v>54</v>
       </c>
       <c r="G2">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H2">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="I2">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="J2">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K2">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M2">
         <v>1.4</v>
@@ -748,16 +748,16 @@
         <v>2.94</v>
       </c>
       <c r="S2">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="T2">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="U2">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="V2">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="W2">
         <v>1.11</v>
@@ -784,13 +784,13 @@
         <v>3.5</v>
       </c>
       <c r="AE2">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AF2">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG2">
-        <v>3.92</v>
+        <v>3.74</v>
       </c>
       <c r="AH2">
         <v>1.29</v>
@@ -805,7 +805,7 @@
         <v>2.3</v>
       </c>
       <c r="AL2">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="AM2">
         <v>1.77</v>
@@ -983,13 +983,13 @@
         <v>3.6</v>
       </c>
       <c r="J4">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L4">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="M4">
         <v>1.36</v>
@@ -1397,10 +1397,10 @@
         <v>6</v>
       </c>
       <c r="Q7">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R7">
-        <v>2.62</v>
+        <v>2.45</v>
       </c>
       <c r="S7">
         <v>2.43</v>

--- a/Jogos_do_Dia/2024-03-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -769,10 +769,10 @@
         <v>2.88</v>
       </c>
       <c r="Z2">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AA2">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AB2">
         <v>2.07</v>
@@ -900,10 +900,10 @@
         <v>1.52</v>
       </c>
       <c r="Z3">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AA3">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AB3">
         <v>1.24</v>
@@ -1031,10 +1031,10 @@
         <v>1.7</v>
       </c>
       <c r="Z4">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB4">
         <v>1.51</v>
@@ -1293,10 +1293,10 @@
         <v>1.62</v>
       </c>
       <c r="Z6">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AA6">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AB6">
         <v>1.66</v>
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AB7">
         <v>1.45</v>
